--- a/documents/chart_of_accounts_mapping.xlsx
+++ b/documents/chart_of_accounts_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Finance-Model\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4711D9-8659-4733-A997-B6FF2B4FD433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983AD49-F02D-4CBE-8212-CFAFC7A39FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36350" yWindow="2310" windowWidth="28430" windowHeight="18410" xr2:uid="{AFD3C0A3-8020-4CFF-AE98-8A0A48C760AF}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AFD3C0A3-8020-4CFF-AE98-8A0A48C760AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>category</t>
   </si>
@@ -77,9 +77,6 @@
     <t>contract</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>current assets</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t>accrued expenses</t>
   </si>
   <si>
-    <t>Accrued Expenses</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>bs_is</t>
   </si>
   <si>
@@ -135,6 +126,18 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>other current liabilities</t>
+  </si>
+  <si>
+    <t>accrued Expenses</t>
+  </si>
+  <si>
+    <t>other long term liabilities</t>
+  </si>
+  <si>
+    <t>other revenue</t>
   </si>
 </sst>
 </file>
@@ -498,34 +501,34 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -536,16 +539,16 @@
         <v>11599</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -556,16 +559,16 @@
         <v>13000</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -576,13 +579,13 @@
         <v>16000</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -593,13 +596,13 @@
         <v>19999</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -610,16 +613,16 @@
         <v>20200</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -630,16 +633,16 @@
         <v>20399</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -650,16 +653,16 @@
         <v>20999</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -670,16 +673,16 @@
         <v>21999</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -690,16 +693,16 @@
         <v>24999</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -710,7 +713,7 @@
         <v>28999</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -724,7 +727,7 @@
         <v>31199</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -741,13 +744,13 @@
         <v>40999</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -758,7 +761,7 @@
         <v>48000</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -772,7 +775,7 @@
         <v>55000</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -789,7 +792,7 @@
         <v>69000</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -806,7 +809,7 @@
         <v>79999</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -823,7 +826,7 @@
         <v>89999</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -840,7 +843,7 @@
         <v>95999</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
